--- a/shaver_metaanalysis_2022/documentation/massSpec_processing_and_analysis_03amm.xlsx
+++ b/shaver_metaanalysis_2022/documentation/massSpec_processing_and_analysis_03amm.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="141">
   <si>
     <t xml:space="preserve">SLAW on Gtech data</t>
   </si>
@@ -2748,32 +2748,16 @@
       </rPr>
       <t xml:space="preserve">
 on ranked data!
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">            --model FE 
+            --model FE 
             --effectSize SMD 
             --cmMethod UB
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">** for each pathway, run MA on all strains associated with the pathway and all PD1074 
+** for each pathway, run MA on all strains associated with the pathway and all PD1074 
 NInoN2:   CB4856,CX11314,DL238,PD1074
 Combo:   VC1265,DL238,UGT60,PD1074
 UGT:      RB2011,RB2550,RB2055,UGT49,UGT60,PD1074
 TCA:      KJ550,RB2347,VC1265,AUM2073,VC2524,PD1074
-NI:         CB4856,N2,CX11314,DL238,PD1074</t>
+NI:         CB4856,N2,CX11314,DL238,PD1074
+All:        all strains!!</t>
     </r>
   </si>
   <si>
@@ -2781,25 +2765,9 @@
 run_MA_slaw_by_pathway_FE_rank.sh</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Output NInoN2:
+    <t xml:space="preserve">Output NInoN2:
 OUTD=$PROJ/SLAW_UGA_Output/meta_analysis_${VAR}/
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MA_FE_rank_byPath_${VAR}_${PATHWAY}_SMD_summary.tsv</t>
-    </r>
+MA_FE_rank_byPath_${VAR}_${PATHWAY}_SMD_summary.tsv</t>
   </si>
   <si>
     <t xml:space="preserve">heatmaps same direction (Zihao code)
@@ -2828,6 +2796,31 @@
 McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/meta_plotting/upset_sigCounts_not_all_same_direct_" + type + "_" + group + ".svg
 McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/meta_plotting/MA_heatmap_', type, "_", group, '.pdf
 McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/meta_plotting/MA_heatmap_', type, "_", group, '.svg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create datasets of effect sizes for generating heatmaps for ALL meta pathway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create_effectSisze_dataset_4_ALL_heatmap_massSpec.sas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/meta_analysis_&amp;type./MA_FE_rank_byMut_&amp;type._&amp;strain._SMD_summary.tsv
+McIntyre_Lab/shaver_metaanalysis_2022/massSpec/meta_analysis_&amp;type./MA_FE_rank_byPath_&amp;type._&amp;path._SMD_summary.tsv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/McIntyre_Lab/shaver_metaanalysis_2022/massSpec/meta_plotting/MA_effectSizes_&amp;tech._ALL.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatmaps for ALL meta pathway 
+All strains, and ALL meta pathway
+Output no clustering and both row / col clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatmap_meta_effect_for_ALL_loop.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/nmr/meta_plotting/MA_heatmap_', type, "_", group, '_complete_clustered.svg
+McIntyre_Lab/shaver_metaanalysis_2022/nmr/meta_plotting/MA_heatmap_', type, "_", group, '_complete.svg'</t>
   </si>
   <si>
     <r>
@@ -2859,6 +2852,9 @@
 direction_pd_vs_strain = "all strain direction" if all directions for strain are = “strain”
 direction_pd_vs_strain = "all pd1074 direction" if all directions for strain are = “pd1074”
 else strain = "mix"
+%checks (rp_neg) ;    /* 5 metabolites in strain dir and sig, 1 in pd1074 dir and sig(total 377) */
+%checks (rp_pos) ;    /* 15 met in strain dir and sig, 4 in pd1074 dir and sig (total 3953) */
+%checks (hilic_pos) ; /* 1 metabolite in strain dir and sig (total 199) */
 </t>
     </r>
   </si>
@@ -2870,52 +2866,18 @@
 /McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/meta_analysis_&amp;type./MA_FE_rank_byPath_&amp;type._&amp;path._SMD_summary.tsv</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/comparing_models/&amp;dataout..csv
+    <t xml:space="preserve">/McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/comparing_models/&amp;dataout..csv
 Dataout:
   MA_output_hilic_pos_NI_flags.csv
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  MA_output_rp_pos_NI_flags.csv
+  MA_output_rp_pos_NI_flags.csv
   MA_output_rp_neg_NI_flags.csv
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  MA_output_hilic_pos_TCA_flags.csv
+  MA_output_hilic_pos_TCA_flags.csv
   MA_output_rp_pos_TCA_flags.csv
   MA_output_rp_neg_TCA_flags.csv
   MA_output_hilic_pos_UGT_flags.csv
   MA_output_rp_pos_UGT_flags.csv
   MA_output_rp_neg_UGT_flags.csv
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">For NInoN2 study, ID features NOT sig meta-strain but ARE sig in meta-study
@@ -2973,53 +2935,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">McIntyre_Lab/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">shaver_metaanalysis_2022/massSpec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/meta_analysis_&amp;tech./MA_FE_rank_byMut_&amp;tech._&amp;strain._SMD_summary.tsv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">McIntyre_Lab/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">shaver_metaanalysis_2022/massSpec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/list_features_sig_metaPath_NInon2_notSig_metaStrain_&amp;tech..tsv</t>
-    </r>
+      <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/meta_analysis_&amp;tech./MA_FE_rank_byMut_&amp;tech._&amp;strain._SMD_summary.tsv</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/list_features_sig_metaPath_NInon2_notSig_metaStrain_&amp;tech..tsv</t>
   </si>
   <si>
     <t xml:space="preserve">rsync SIRIUS output from Brie and Amanda from hpg to mclab</t>
@@ -3060,7 +2980,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> /McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/meta_analysis_&amp;tech./MA_FE_rank_byMut_&amp;tech._&amp;strain._SMD_summary.tsv
+      <t xml:space="preserve"> McIntyre_Lab/shaver_metaanalysis_2022/massSpec/meta_analysis_&amp;tech./MA_FE_rank_byMut_&amp;tech._&amp;strain._SMD_summary.tsv
 </t>
     </r>
     <r>
@@ -3082,28 +3002,51 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/meta_analysis_&amp;tech./MA_FE_rank_byPath_&amp;tech._&amp;path._SMD_summary.tsv"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PH analysis ready data:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/analysisReady_datasets/&amp;datain.
+      <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/meta_analysis_&amp;tech./MA_FE_rank_byPath_&amp;tech._&amp;path._SMD_summary.ts
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Flag files and direction:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/flag_files/&amp;datain..csv"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+PH and rank analysis ready data:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/analysisReady_datasets/&amp;datain.
+McIntyre_Lab/shaver_metaanalysis_2022/massSpec/analysisReady_datasets/ready_&amp;tech._rank_sbys.tsv
 </t>
     </r>
     <r>
@@ -3124,7 +3067,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">McIntyre_Lab/CID/sweet16/SLAW_UGA_Output/text_data/meta_analysis_&amp;tech._SLAW_output_0xBFF_PH_annot.tsv
+      <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/text_data/meta_analysis_&amp;tech._SLAW_output_0xBFF_PH_annot.tsv
 </t>
     </r>
     <r>
@@ -3146,71 +3089,28 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">McIntyre_Lab/CID/sweet16/MA_SIRIUS_output/SIRIUS_output_mergedIDs/SIRIUS_MA_&amp;tech._mergedID.csv
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">nmr input files:
-Effect sizes and pvalues by strain: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">McIntyre_Lab/CID/sweet16/nmr/meta_analysis/MA_fixedEffect_NMR_&amp;tech._rank_&amp;strain._&amp;tech._SMD_summary.tsv
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Effect sizes and pvalues by pathway: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">McIntyre_Lab/CID/sweet16/nmr/meta_analysis/MA_fixedEffect_pathway_NMR_&amp;tech._rank_&amp;path._summary.tsv
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">PH analysis ready data:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">McIntyre_Lab/CID/sweet16/nmr/ready_&amp;tech._PH_sbys.tsv
+      <t xml:space="preserve">McIntyre_Lab/shaver_metaanalysis_2022/massSpec/MA_SIRIUS_output/SIRIUS_output_mergedIDs/SIRIUS_MA_&amp;tech._mergedID.csv
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
   </si>
@@ -3466,24 +3366,8 @@
     <t xml:space="preserve">PROJ/SLAW_UGA_Output/comparing_models/upset_plot_sig_${i}_${j}_sig.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">upset plots – with flag_${strain}_ge_pd1074 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TCA, UGT and NI</t>
-    </r>
+    <t xml:space="preserve">upset plots – with flag_${strain}_ge_pd1074 
+TCA, UGT and NI</t>
   </si>
   <si>
     <t xml:space="preserve">PROJ/SLAW_UGA_Output/comparing_models/${i}_${j}_4_upset_plot.csv
@@ -3498,7 +3382,7 @@
 This script does Both nmr and massSpec!!</t>
   </si>
   <si>
-    <t xml:space="preserve">designs_4_upset_allStrains_byTechs.sas</t>
+    <t xml:space="preserve">dsgns_4_upset_allStrains_byTechs.sas</t>
   </si>
   <si>
     <t xml:space="preserve">upset plot
@@ -3560,34 +3444,9 @@
     <t xml:space="preserve">$PROJ/SLAW_UGA_Output/meta_analysis_${i}/upsetPlot_byStrain_sig_${i}_min3.pdf</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Run forest plot - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> only features sig in meta study and not in individual NI strains (omitted N2) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">For  NI no N2
-</t>
-    </r>
+    <t xml:space="preserve">Run forest plot -  only features sig in meta study and not in individual NI strains (omitted N2) 
+For  NI no N2
+</t>
   </si>
   <si>
     <t xml:space="preserve">$SCRIPT/meta_analysis.py</t>
@@ -3613,7 +3472,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3681,11 +3540,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3741,7 +3595,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3779,10 +3633,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3867,13 +3717,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A26" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D93" activeCellId="0" sqref="D93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.5"/>
@@ -4309,7 +4159,7 @@
       </c>
     </row>
     <row r="64" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" s="5" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="5" customFormat="true" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="8" t="s">
         <v>85</v>
       </c>
@@ -4319,7 +4169,7 @@
       <c r="F65" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G65" s="10" t="s">
+      <c r="G65" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4343,197 +4193,225 @@
     </row>
     <row r="68" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="69" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" s="5" customFormat="true" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="8" t="s">
+    <row r="70" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="5" t="s">
         <v>93</v>
       </c>
+      <c r="D70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="D71" s="5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G71" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="G71" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="72" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" s="5" customFormat="true" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
     <row r="74" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" s="5" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="11"/>
-      <c r="B75" s="0"/>
-      <c r="C75" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G75" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="76" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" s="5" customFormat="true" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10"/>
+      <c r="B77" s="0"/>
       <c r="C77" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="78" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" s="5" customFormat="true" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="5" customFormat="true" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" s="5" customFormat="true" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>106</v>
+      <c r="E79" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0"/>
+      <c r="F80" s="8"/>
+    </row>
+    <row r="81" s="5" customFormat="true" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>112</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" s="5" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G84" s="8" t="s">
+    <row r="83" s="5" customFormat="true" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
+      <c r="G83" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="84" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="85" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" s="5" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="5" t="s">
-        <v>114</v>
+    <row r="86" s="5" customFormat="true" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="G86" s="5" t="s">
         <v>118</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="87" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="88" s="5" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="89" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" s="11" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="11" t="s">
+    <row r="90" s="5" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="E90" s="5" t="s">
         <v>123</v>
       </c>
+      <c r="F90" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="91" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" s="5" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0"/>
-      <c r="C92" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="93" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="0"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-    </row>
+    <row r="92" s="10" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D92" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="94" s="5" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0"/>
-      <c r="C94" s="3" t="s">
-        <v>129</v>
+      <c r="C94" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E94" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F94" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="E94" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="G94" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0"/>
-      <c r="C95" s="3"/>
+      <c r="E95" s="0"/>
       <c r="F95" s="8"/>
-    </row>
-    <row r="96" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G95" s="8"/>
+    </row>
+    <row r="96" s="5" customFormat="true" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0"/>
-    </row>
-    <row r="100" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C96" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0"/>
+      <c r="C97" s="3"/>
+      <c r="F97" s="8"/>
+    </row>
+    <row r="98" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0"/>
+    </row>
+    <row r="102" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
